--- a/data/reference/lookups/MLSS_dashboard.xlsx
+++ b/data/reference/lookups/MLSS_dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\MLSS\data\reference\lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD27FEC-E90C-4386-B2B6-C120711A69A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF134CD0-BFA8-42AC-977A-903953E083ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="1249">
   <si>
     <t>id</t>
   </si>
@@ -2230,12 +2230,6 @@
     <t>Enrollment (Upper Primary)</t>
   </si>
   <si>
-    <t>School_id</t>
-  </si>
-  <si>
-    <t>School_nam</t>
-  </si>
-  <si>
     <t>School blocks need to be completely rebuilt</t>
   </si>
   <si>
@@ -3788,6 +3782,9 @@
   </si>
   <si>
     <t>below_SES_40th</t>
+  </si>
+  <si>
+    <t>school_nam</t>
   </si>
 </sst>
 </file>
@@ -4256,7 +4253,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4316,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>730</v>
+        <v>12</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>13</v>
@@ -4346,7 +4343,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>731</v>
+        <v>1248</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>17</v>
@@ -4379,7 +4376,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>14</v>
@@ -4412,7 +4409,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>23</v>
@@ -4478,7 +4475,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>30</v>
@@ -4511,7 +4508,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>33</v>
@@ -4537,7 +4534,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>33</v>
@@ -4797,7 +4794,7 @@
         <v>72</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>33</v>
@@ -4823,7 +4820,7 @@
         <v>74</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>33</v>
@@ -4849,7 +4846,7 @@
         <v>76</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>33</v>
@@ -4875,7 +4872,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>33</v>
@@ -4901,7 +4898,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>33</v>
@@ -4927,7 +4924,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>33</v>
@@ -4953,7 +4950,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>33</v>
@@ -4979,7 +4976,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>33</v>
@@ -5005,7 +5002,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>33</v>
@@ -5031,7 +5028,7 @@
         <v>68</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>33</v>
@@ -5057,7 +5054,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>33</v>
@@ -5083,7 +5080,7 @@
         <v>94</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>33</v>
@@ -5109,7 +5106,7 @@
         <v>96</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>33</v>
@@ -5135,7 +5132,7 @@
         <v>98</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>33</v>
@@ -5161,7 +5158,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>33</v>
@@ -5187,7 +5184,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>33</v>
@@ -5213,7 +5210,7 @@
         <v>82</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>33</v>
@@ -5239,7 +5236,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>33</v>
@@ -5265,7 +5262,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>33</v>
@@ -5291,7 +5288,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>33</v>
@@ -5317,7 +5314,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>33</v>
@@ -5343,7 +5340,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>33</v>
@@ -5369,7 +5366,7 @@
         <v>100</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>33</v>
@@ -5384,7 +5381,7 @@
         <v>15</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="L41" s="50"/>
     </row>
@@ -5396,7 +5393,7 @@
         <v>102</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D42" s="19" t="s">
         <v>33</v>
@@ -5411,7 +5408,7 @@
         <v>15</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="L42" s="51"/>
     </row>
@@ -5423,7 +5420,7 @@
         <v>104</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D43" s="19" t="s">
         <v>33</v>
@@ -5438,7 +5435,7 @@
         <v>15</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="L43" s="51"/>
     </row>
@@ -5450,7 +5447,7 @@
         <v>106</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>33</v>
@@ -5465,7 +5462,7 @@
         <v>15</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="L44" s="51"/>
     </row>
@@ -5477,7 +5474,7 @@
         <v>108</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>33</v>
@@ -5492,7 +5489,7 @@
         <v>15</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="L45" s="51"/>
     </row>
@@ -5504,7 +5501,7 @@
         <v>110</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D46" s="19" t="s">
         <v>33</v>
@@ -5519,7 +5516,7 @@
         <v>15</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="L46" s="51"/>
     </row>
@@ -5557,7 +5554,7 @@
         <v>137</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>33</v>
@@ -5584,7 +5581,7 @@
         <v>140</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D49" s="19" t="s">
         <v>33</v>
@@ -5610,7 +5607,7 @@
         <v>142</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D50" s="19" t="s">
         <v>27</v>
@@ -5637,22 +5634,22 @@
         <v>144</v>
       </c>
       <c r="C51" s="24" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="41" t="s">
         <v>1219</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K51" s="41" t="s">
-        <v>1221</v>
       </c>
       <c r="L51" s="10"/>
     </row>
@@ -5664,7 +5661,7 @@
         <v>145</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>33</v>
@@ -5679,7 +5676,7 @@
         <v>15</v>
       </c>
       <c r="K52" s="41" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="L52" s="10"/>
     </row>
@@ -5691,7 +5688,7 @@
         <v>147</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D53" s="19" t="s">
         <v>33</v>
@@ -5714,7 +5711,7 @@
         <v>149</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D54" s="19" t="s">
         <v>33</v>
@@ -5738,7 +5735,7 @@
         <v>151</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>33</v>
@@ -5786,7 +5783,7 @@
         <v>155</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>27</v>
@@ -5838,7 +5835,7 @@
         <v>160</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D59" s="19" t="s">
         <v>33</v>
@@ -5864,7 +5861,7 @@
         <v>162</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>33</v>
@@ -5890,7 +5887,7 @@
         <v>164</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>33</v>
@@ -5916,7 +5913,7 @@
         <v>166</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D62" s="19" t="s">
         <v>33</v>
@@ -5968,7 +5965,7 @@
         <v>171</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>172</v>
@@ -5994,7 +5991,7 @@
         <v>135</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>33</v>
@@ -6020,7 +6017,7 @@
         <v>119</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>33</v>
@@ -6046,7 +6043,7 @@
         <v>115</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>33</v>
@@ -6072,7 +6069,7 @@
         <v>117</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>33</v>
@@ -6098,7 +6095,7 @@
         <v>127</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>33</v>
@@ -6124,7 +6121,7 @@
         <v>123</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D70" s="19" t="s">
         <v>33</v>
@@ -6150,7 +6147,7 @@
         <v>125</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D71" s="19" t="s">
         <v>33</v>
@@ -6176,7 +6173,7 @@
         <v>121</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D72" s="19" t="s">
         <v>33</v>
@@ -6202,7 +6199,7 @@
         <v>133</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>33</v>
@@ -6228,7 +6225,7 @@
         <v>129</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>33</v>
@@ -6254,7 +6251,7 @@
         <v>131</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>33</v>
@@ -6280,7 +6277,7 @@
         <v>229</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D76" s="19" t="s">
         <v>33</v>
@@ -6295,7 +6292,7 @@
         <v>15</v>
       </c>
       <c r="K76" s="19" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -6306,7 +6303,7 @@
         <v>233</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>33</v>
@@ -6321,7 +6318,7 @@
         <v>15</v>
       </c>
       <c r="K77" s="19" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -6332,7 +6329,7 @@
         <v>235</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D78" s="19" t="s">
         <v>33</v>
@@ -6347,7 +6344,7 @@
         <v>15</v>
       </c>
       <c r="K78" s="19" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -6358,7 +6355,7 @@
         <v>195</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D79" s="19" t="s">
         <v>33</v>
@@ -6373,7 +6370,7 @@
         <v>15</v>
       </c>
       <c r="K79" s="19" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6384,7 +6381,7 @@
         <v>193</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D80" s="19" t="s">
         <v>33</v>
@@ -6399,7 +6396,7 @@
         <v>15</v>
       </c>
       <c r="K80" s="19" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6410,7 +6407,7 @@
         <v>191</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>33</v>
@@ -6425,7 +6422,7 @@
         <v>15</v>
       </c>
       <c r="K81" s="19" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6436,7 +6433,7 @@
         <v>174</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>33</v>
@@ -6451,7 +6448,7 @@
         <v>15</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6462,7 +6459,7 @@
         <v>177</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>33</v>
@@ -6477,7 +6474,7 @@
         <v>15</v>
       </c>
       <c r="K83" s="19" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6488,7 +6485,7 @@
         <v>179</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D84" s="19" t="s">
         <v>33</v>
@@ -6503,7 +6500,7 @@
         <v>15</v>
       </c>
       <c r="K84" s="19" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6514,7 +6511,7 @@
         <v>181</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>33</v>
@@ -6529,7 +6526,7 @@
         <v>15</v>
       </c>
       <c r="K85" s="19" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6540,7 +6537,7 @@
         <v>183</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D86" s="19" t="s">
         <v>33</v>
@@ -6555,7 +6552,7 @@
         <v>15</v>
       </c>
       <c r="K86" s="19" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6566,7 +6563,7 @@
         <v>185</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>33</v>
@@ -6581,7 +6578,7 @@
         <v>15</v>
       </c>
       <c r="K87" s="19" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6592,7 +6589,7 @@
         <v>187</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>33</v>
@@ -6607,7 +6604,7 @@
         <v>15</v>
       </c>
       <c r="K88" s="19" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6618,7 +6615,7 @@
         <v>189</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D89" s="19" t="s">
         <v>33</v>
@@ -6633,7 +6630,7 @@
         <v>15</v>
       </c>
       <c r="K89" s="19" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -6644,7 +6641,7 @@
         <v>197</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D90" s="19" t="s">
         <v>33</v>
@@ -6659,7 +6656,7 @@
         <v>15</v>
       </c>
       <c r="K90" s="19" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -6670,7 +6667,7 @@
         <v>201</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D91" s="19" t="s">
         <v>33</v>
@@ -6685,7 +6682,7 @@
         <v>15</v>
       </c>
       <c r="K91" s="19" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -6696,7 +6693,7 @@
         <v>205</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D92" s="19" t="s">
         <v>33</v>
@@ -6711,7 +6708,7 @@
         <v>15</v>
       </c>
       <c r="K92" s="19" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -6722,7 +6719,7 @@
         <v>209</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D93" s="19" t="s">
         <v>33</v>
@@ -6737,7 +6734,7 @@
         <v>15</v>
       </c>
       <c r="K93" s="19" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -6748,7 +6745,7 @@
         <v>213</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D94" s="19" t="s">
         <v>33</v>
@@ -6763,7 +6760,7 @@
         <v>15</v>
       </c>
       <c r="K94" s="19" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -6774,7 +6771,7 @@
         <v>217</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D95" s="19" t="s">
         <v>33</v>
@@ -6789,7 +6786,7 @@
         <v>15</v>
       </c>
       <c r="K95" s="19" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -6800,7 +6797,7 @@
         <v>221</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D96" s="19" t="s">
         <v>33</v>
@@ -6815,7 +6812,7 @@
         <v>15</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -6826,7 +6823,7 @@
         <v>225</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D97" s="19" t="s">
         <v>33</v>
@@ -6841,7 +6838,7 @@
         <v>15</v>
       </c>
       <c r="K97" s="19" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -6852,7 +6849,7 @@
         <v>231</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D98" s="19" t="s">
         <v>33</v>
@@ -6867,7 +6864,7 @@
         <v>15</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6878,7 +6875,7 @@
         <v>237</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D99" s="19" t="s">
         <v>33</v>
@@ -6893,7 +6890,7 @@
         <v>15</v>
       </c>
       <c r="K99" s="19" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6904,7 +6901,7 @@
         <v>239</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D100" s="19" t="s">
         <v>33</v>
@@ -6919,7 +6916,7 @@
         <v>15</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6930,7 +6927,7 @@
         <v>199</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D101" s="19" t="s">
         <v>33</v>
@@ -6945,7 +6942,7 @@
         <v>15</v>
       </c>
       <c r="K101" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6956,7 +6953,7 @@
         <v>203</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D102" s="19" t="s">
         <v>33</v>
@@ -6971,7 +6968,7 @@
         <v>15</v>
       </c>
       <c r="K102" s="19" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -6982,7 +6979,7 @@
         <v>207</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D103" s="19" t="s">
         <v>33</v>
@@ -6997,7 +6994,7 @@
         <v>15</v>
       </c>
       <c r="K103" s="19" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -7008,7 +7005,7 @@
         <v>211</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D104" s="19" t="s">
         <v>33</v>
@@ -7023,7 +7020,7 @@
         <v>15</v>
       </c>
       <c r="K104" s="19" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -7034,7 +7031,7 @@
         <v>215</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D105" s="19" t="s">
         <v>33</v>
@@ -7049,7 +7046,7 @@
         <v>15</v>
       </c>
       <c r="K105" s="19" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -7060,7 +7057,7 @@
         <v>219</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D106" s="19" t="s">
         <v>33</v>
@@ -7075,7 +7072,7 @@
         <v>15</v>
       </c>
       <c r="K106" s="19" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -7086,7 +7083,7 @@
         <v>223</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>33</v>
@@ -7101,7 +7098,7 @@
         <v>15</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -7112,7 +7109,7 @@
         <v>227</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>33</v>
@@ -7127,7 +7124,7 @@
         <v>15</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -7138,7 +7135,7 @@
         <v>257</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>33</v>
@@ -7153,7 +7150,7 @@
         <v>15</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -7164,7 +7161,7 @@
         <v>259</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D110" s="19" t="s">
         <v>33</v>
@@ -7179,7 +7176,7 @@
         <v>15</v>
       </c>
       <c r="K110" s="19" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -7190,7 +7187,7 @@
         <v>261</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D111" s="19" t="s">
         <v>33</v>
@@ -7205,7 +7202,7 @@
         <v>15</v>
       </c>
       <c r="K111" s="19" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -7216,7 +7213,7 @@
         <v>241</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D112" s="19" t="s">
         <v>33</v>
@@ -7231,7 +7228,7 @@
         <v>15</v>
       </c>
       <c r="K112" s="20" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -7242,7 +7239,7 @@
         <v>243</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D113" s="19" t="s">
         <v>33</v>
@@ -7257,7 +7254,7 @@
         <v>15</v>
       </c>
       <c r="K113" s="19" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -7268,7 +7265,7 @@
         <v>245</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D114" s="19" t="s">
         <v>33</v>
@@ -7283,7 +7280,7 @@
         <v>15</v>
       </c>
       <c r="K114" s="19" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -7294,7 +7291,7 @@
         <v>247</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D115" s="19" t="s">
         <v>33</v>
@@ -7309,7 +7306,7 @@
         <v>15</v>
       </c>
       <c r="K115" s="19" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -7320,7 +7317,7 @@
         <v>249</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>33</v>
@@ -7335,7 +7332,7 @@
         <v>15</v>
       </c>
       <c r="K116" s="19" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -7346,7 +7343,7 @@
         <v>251</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>33</v>
@@ -7361,7 +7358,7 @@
         <v>15</v>
       </c>
       <c r="K117" s="19" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -7372,7 +7369,7 @@
         <v>253</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>33</v>
@@ -7387,7 +7384,7 @@
         <v>15</v>
       </c>
       <c r="K118" s="19" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -7398,7 +7395,7 @@
         <v>255</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D119" s="19" t="s">
         <v>33</v>
@@ -7413,7 +7410,7 @@
         <v>15</v>
       </c>
       <c r="K119" s="19" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -7424,7 +7421,7 @@
         <v>263</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D120" s="19" t="s">
         <v>33</v>
@@ -7439,7 +7436,7 @@
         <v>15</v>
       </c>
       <c r="K120" s="19" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -7450,7 +7447,7 @@
         <v>265</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D121" s="19" t="s">
         <v>33</v>
@@ -7476,7 +7473,7 @@
         <v>267</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D122" s="19" t="s">
         <v>33</v>
@@ -7502,7 +7499,7 @@
         <v>269</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>33</v>
@@ -7528,7 +7525,7 @@
         <v>271</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D124" s="19" t="s">
         <v>33</v>
@@ -7543,7 +7540,7 @@
         <v>15</v>
       </c>
       <c r="K124" s="19" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L124" s="52"/>
     </row>
@@ -7555,7 +7552,7 @@
         <v>273</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D125" s="19" t="s">
         <v>33</v>
@@ -7570,7 +7567,7 @@
         <v>15</v>
       </c>
       <c r="K125" s="19" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="L125" s="52"/>
     </row>
@@ -7582,7 +7579,7 @@
         <v>275</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D126" s="19" t="s">
         <v>33</v>
@@ -7597,7 +7594,7 @@
         <v>15</v>
       </c>
       <c r="K126" s="19" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="L126" s="52"/>
     </row>
@@ -7609,7 +7606,7 @@
         <v>277</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D127" s="19" t="s">
         <v>33</v>
@@ -7624,7 +7621,7 @@
         <v>15</v>
       </c>
       <c r="K127" s="19" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="L127" s="52"/>
     </row>
@@ -7636,7 +7633,7 @@
         <v>279</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D128" s="19" t="s">
         <v>33</v>
@@ -7651,7 +7648,7 @@
         <v>15</v>
       </c>
       <c r="K128" s="19" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="L128" s="52"/>
     </row>
@@ -7663,7 +7660,7 @@
         <v>281</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D129" s="19" t="s">
         <v>33</v>
@@ -7678,7 +7675,7 @@
         <v>15</v>
       </c>
       <c r="K129" s="19" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="L129" s="52"/>
     </row>
@@ -7690,7 +7687,7 @@
         <v>283</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D130" s="19" t="s">
         <v>33</v>
@@ -7705,7 +7702,7 @@
         <v>15</v>
       </c>
       <c r="K130" s="19" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="L130" s="52"/>
     </row>
@@ -7717,22 +7714,22 @@
         <v>285</v>
       </c>
       <c r="C131" s="24" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J131" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" s="19" t="s">
         <v>1122</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E131" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F131" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J131" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K131" s="19" t="s">
-        <v>1124</v>
       </c>
       <c r="L131" s="52"/>
     </row>
@@ -7744,7 +7741,7 @@
         <v>287</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="D132" s="19" t="s">
         <v>33</v>
@@ -7760,7 +7757,7 @@
         <v>15</v>
       </c>
       <c r="K132" s="19" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="L132" s="31"/>
     </row>
@@ -7772,7 +7769,7 @@
         <v>289</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D133" s="19" t="s">
         <v>33</v>
@@ -7798,7 +7795,7 @@
         <v>291</v>
       </c>
       <c r="C134" s="26" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D134" s="19" t="s">
         <v>33</v>
@@ -7813,11 +7810,11 @@
         <v>15</v>
       </c>
       <c r="K134" s="24" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="L134" s="21"/>
       <c r="M134" s="11" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="135" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
@@ -7828,7 +7825,7 @@
         <v>293</v>
       </c>
       <c r="C135" s="26" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D135" s="19" t="s">
         <v>33</v>
@@ -7844,7 +7841,7 @@
         <v>15</v>
       </c>
       <c r="K135" s="19" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="L135" s="31"/>
     </row>
@@ -7856,7 +7853,7 @@
         <v>295</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D136" s="19" t="s">
         <v>33</v>
@@ -7871,7 +7868,7 @@
         <v>15</v>
       </c>
       <c r="K136" s="20" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="137" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
@@ -7882,7 +7879,7 @@
         <v>297</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D137" s="19" t="s">
         <v>33</v>
@@ -7897,7 +7894,7 @@
         <v>15</v>
       </c>
       <c r="K137" s="20" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="138" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
@@ -7908,7 +7905,7 @@
         <v>299</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D138" s="19" t="s">
         <v>33</v>
@@ -7923,7 +7920,7 @@
         <v>15</v>
       </c>
       <c r="K138" s="20" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="139" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
@@ -7934,7 +7931,7 @@
         <v>301</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D139" s="19" t="s">
         <v>33</v>
@@ -7949,7 +7946,7 @@
         <v>15</v>
       </c>
       <c r="K139" s="20" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="140" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
@@ -7960,7 +7957,7 @@
         <v>303</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D140" s="19" t="s">
         <v>33</v>
@@ -7976,7 +7973,7 @@
         <v>15</v>
       </c>
       <c r="K140" s="19" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="141" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
@@ -7987,7 +7984,7 @@
         <v>305</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D141" s="19" t="s">
         <v>33</v>
@@ -8010,10 +8007,10 @@
         <v>306</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C142" s="43" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D142" s="40" t="s">
         <v>33</v>
@@ -8031,13 +8028,13 @@
         <v>15</v>
       </c>
       <c r="K142" s="41" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
       <c r="N142" s="19"/>
       <c r="O142" s="27" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="P142" s="19" t="s">
         <v>33</v>
@@ -8076,12 +8073,12 @@
         <v>15</v>
       </c>
       <c r="K143" s="53" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="L143" s="10"/>
       <c r="N143" s="19"/>
       <c r="O143" s="27" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="P143" s="19" t="s">
         <v>33</v>
@@ -8123,7 +8120,7 @@
       <c r="L144" s="10"/>
       <c r="N144" s="19"/>
       <c r="O144" s="27" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="P144" s="19" t="s">
         <v>33</v>
@@ -8165,7 +8162,7 @@
       <c r="L145" s="10"/>
       <c r="N145" s="19"/>
       <c r="O145" s="27" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="P145" s="19" t="s">
         <v>33</v>
@@ -8192,7 +8189,7 @@
         <v>311</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D146" s="19" t="s">
         <v>33</v>
@@ -8219,7 +8216,7 @@
         <v>313</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D147" s="19" t="s">
         <v>33</v>
@@ -8246,7 +8243,7 @@
         <v>315</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D148" s="19" t="s">
         <v>33</v>
@@ -8273,7 +8270,7 @@
         <v>317</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D149" s="19" t="s">
         <v>33</v>
@@ -8300,7 +8297,7 @@
         <v>319</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D150" s="19" t="s">
         <v>33</v>
@@ -8327,7 +8324,7 @@
         <v>321</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D151" s="19" t="s">
         <v>33</v>
@@ -8354,7 +8351,7 @@
         <v>323</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D152" s="19" t="s">
         <v>33</v>
@@ -8380,7 +8377,7 @@
         <v>325</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D153" s="19" t="s">
         <v>33</v>
@@ -8406,7 +8403,7 @@
         <v>327</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D154" s="19" t="s">
         <v>33</v>
@@ -8432,7 +8429,7 @@
         <v>329</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D155" s="19" t="s">
         <v>33</v>
@@ -8458,7 +8455,7 @@
         <v>331</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D156" s="19" t="s">
         <v>33</v>
@@ -8473,7 +8470,7 @@
         <v>15</v>
       </c>
       <c r="K156" s="20" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="157" spans="1:23" ht="26.4" x14ac:dyDescent="0.25">
@@ -8484,7 +8481,7 @@
         <v>333</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D157" s="19" t="s">
         <v>33</v>
@@ -8510,7 +8507,7 @@
         <v>335</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D158" s="19" t="s">
         <v>33</v>
@@ -8536,7 +8533,7 @@
         <v>337</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D159" s="19" t="s">
         <v>33</v>
@@ -8562,7 +8559,7 @@
         <v>339</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D160" s="19" t="s">
         <v>33</v>
@@ -8588,7 +8585,7 @@
         <v>341</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D161" s="19" t="s">
         <v>33</v>
@@ -8603,7 +8600,7 @@
         <v>15</v>
       </c>
       <c r="K161" s="20" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -8614,7 +8611,7 @@
         <v>343</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D162" s="19" t="s">
         <v>33</v>
@@ -8640,7 +8637,7 @@
         <v>345</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D163" s="19" t="s">
         <v>33</v>
@@ -8655,7 +8652,7 @@
         <v>15</v>
       </c>
       <c r="K163" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -8666,7 +8663,7 @@
         <v>347</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D164" s="19" t="s">
         <v>33</v>
@@ -8681,7 +8678,7 @@
         <v>15</v>
       </c>
       <c r="K164" s="20" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -8692,7 +8689,7 @@
         <v>365</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D165" s="19" t="s">
         <v>33</v>
@@ -8718,7 +8715,7 @@
         <v>367</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D166" s="19" t="s">
         <v>33</v>
@@ -8744,7 +8741,7 @@
         <v>369</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D167" s="19" t="s">
         <v>33</v>
@@ -8770,7 +8767,7 @@
         <v>349</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D168" s="19" t="s">
         <v>33</v>
@@ -8796,7 +8793,7 @@
         <v>351</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D169" s="19" t="s">
         <v>33</v>
@@ -8822,7 +8819,7 @@
         <v>353</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D170" s="19" t="s">
         <v>33</v>
@@ -8848,7 +8845,7 @@
         <v>355</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D171" s="19" t="s">
         <v>33</v>
@@ -8874,7 +8871,7 @@
         <v>357</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D172" s="19" t="s">
         <v>33</v>
@@ -8900,7 +8897,7 @@
         <v>359</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D173" s="19" t="s">
         <v>33</v>
@@ -8926,7 +8923,7 @@
         <v>361</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D174" s="19" t="s">
         <v>33</v>
@@ -8952,7 +8949,7 @@
         <v>363</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D175" s="19" t="s">
         <v>33</v>
@@ -8984,7 +8981,7 @@
       <c r="I176" s="15"/>
       <c r="J176" s="24"/>
       <c r="K176" s="27" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="L176" s="14"/>
     </row>
@@ -8996,7 +8993,7 @@
         <v>386</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D177" s="19" t="s">
         <v>33</v>
@@ -9011,7 +9008,7 @@
         <v>15</v>
       </c>
       <c r="K177" s="20" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -9022,7 +9019,7 @@
         <v>372</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D178" s="19" t="s">
         <v>33</v>
@@ -9037,7 +9034,7 @@
         <v>15</v>
       </c>
       <c r="K178" s="19" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -9048,7 +9045,7 @@
         <v>374</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D179" s="19" t="s">
         <v>33</v>
@@ -9063,7 +9060,7 @@
         <v>15</v>
       </c>
       <c r="K179" s="19" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -9074,7 +9071,7 @@
         <v>376</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D180" s="19" t="s">
         <v>33</v>
@@ -9089,7 +9086,7 @@
         <v>15</v>
       </c>
       <c r="K180" s="19" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -9100,7 +9097,7 @@
         <v>378</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D181" s="19" t="s">
         <v>33</v>
@@ -9115,7 +9112,7 @@
         <v>15</v>
       </c>
       <c r="K181" s="19" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -9126,7 +9123,7 @@
         <v>380</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D182" s="19" t="s">
         <v>33</v>
@@ -9141,7 +9138,7 @@
         <v>15</v>
       </c>
       <c r="K182" s="19" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -9152,7 +9149,7 @@
         <v>382</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D183" s="19" t="s">
         <v>33</v>
@@ -9167,7 +9164,7 @@
         <v>15</v>
       </c>
       <c r="K183" s="19" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -9178,7 +9175,7 @@
         <v>384</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D184" s="19" t="s">
         <v>33</v>
@@ -9193,7 +9190,7 @@
         <v>15</v>
       </c>
       <c r="K184" s="19" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -9204,7 +9201,7 @@
         <v>402</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D185" s="19" t="s">
         <v>33</v>
@@ -9219,7 +9216,7 @@
         <v>15</v>
       </c>
       <c r="K185" s="19" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -9230,7 +9227,7 @@
         <v>388</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D186" s="19" t="s">
         <v>33</v>
@@ -9245,7 +9242,7 @@
         <v>15</v>
       </c>
       <c r="K186" s="19" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -9256,7 +9253,7 @@
         <v>390</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D187" s="19" t="s">
         <v>33</v>
@@ -9271,7 +9268,7 @@
         <v>15</v>
       </c>
       <c r="K187" s="19" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -9282,7 +9279,7 @@
         <v>392</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D188" s="19" t="s">
         <v>33</v>
@@ -9297,7 +9294,7 @@
         <v>15</v>
       </c>
       <c r="K188" s="19" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -9308,7 +9305,7 @@
         <v>394</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D189" s="19" t="s">
         <v>33</v>
@@ -9323,7 +9320,7 @@
         <v>15</v>
       </c>
       <c r="K189" s="19" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -9334,7 +9331,7 @@
         <v>396</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D190" s="19" t="s">
         <v>33</v>
@@ -9349,7 +9346,7 @@
         <v>15</v>
       </c>
       <c r="K190" s="19" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -9360,7 +9357,7 @@
         <v>398</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D191" s="19" t="s">
         <v>33</v>
@@ -9375,7 +9372,7 @@
         <v>15</v>
       </c>
       <c r="K191" s="19" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -9386,7 +9383,7 @@
         <v>400</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D192" s="19" t="s">
         <v>33</v>
@@ -9401,7 +9398,7 @@
         <v>15</v>
       </c>
       <c r="K192" s="19" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -9412,7 +9409,7 @@
         <v>452</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D193" s="19" t="s">
         <v>33</v>
@@ -9438,7 +9435,7 @@
         <v>454</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D194" s="19" t="s">
         <v>33</v>
@@ -9464,7 +9461,7 @@
         <v>456</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D195" s="19" t="s">
         <v>33</v>
@@ -9490,7 +9487,7 @@
         <v>404</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D196" s="19" t="s">
         <v>33</v>
@@ -9516,7 +9513,7 @@
         <v>410</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D197" s="19" t="s">
         <v>33</v>
@@ -9542,7 +9539,7 @@
         <v>416</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D198" s="19" t="s">
         <v>33</v>
@@ -9568,7 +9565,7 @@
         <v>422</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D199" s="19" t="s">
         <v>33</v>
@@ -9594,7 +9591,7 @@
         <v>428</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D200" s="19" t="s">
         <v>33</v>
@@ -9620,7 +9617,7 @@
         <v>434</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D201" s="19" t="s">
         <v>33</v>
@@ -9646,7 +9643,7 @@
         <v>440</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D202" s="19" t="s">
         <v>33</v>
@@ -9672,7 +9669,7 @@
         <v>446</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D203" s="19" t="s">
         <v>33</v>
@@ -9698,7 +9695,7 @@
         <v>458</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D204" s="19" t="s">
         <v>33</v>
@@ -9724,7 +9721,7 @@
         <v>460</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D205" s="19" t="s">
         <v>33</v>
@@ -9750,7 +9747,7 @@
         <v>462</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D206" s="19" t="s">
         <v>33</v>
@@ -9776,7 +9773,7 @@
         <v>406</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D207" s="19" t="s">
         <v>33</v>
@@ -9802,7 +9799,7 @@
         <v>412</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D208" s="19" t="s">
         <v>33</v>
@@ -9828,7 +9825,7 @@
         <v>418</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D209" s="19" t="s">
         <v>33</v>
@@ -9854,7 +9851,7 @@
         <v>424</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D210" s="19" t="s">
         <v>33</v>
@@ -9880,7 +9877,7 @@
         <v>430</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D211" s="19" t="s">
         <v>33</v>
@@ -9906,7 +9903,7 @@
         <v>436</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D212" s="19" t="s">
         <v>33</v>
@@ -9932,7 +9929,7 @@
         <v>442</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D213" s="19" t="s">
         <v>33</v>
@@ -9958,7 +9955,7 @@
         <v>448</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D214" s="19" t="s">
         <v>33</v>
@@ -9984,7 +9981,7 @@
         <v>464</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D215" s="19" t="s">
         <v>33</v>
@@ -10010,7 +10007,7 @@
         <v>466</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D216" s="19" t="s">
         <v>33</v>
@@ -10036,7 +10033,7 @@
         <v>468</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D217" s="19" t="s">
         <v>33</v>
@@ -10062,7 +10059,7 @@
         <v>408</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D218" s="19" t="s">
         <v>33</v>
@@ -10088,7 +10085,7 @@
         <v>414</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D219" s="19" t="s">
         <v>33</v>
@@ -10114,7 +10111,7 @@
         <v>420</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D220" s="19" t="s">
         <v>33</v>
@@ -10140,7 +10137,7 @@
         <v>426</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D221" s="19" t="s">
         <v>33</v>
@@ -10166,7 +10163,7 @@
         <v>432</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D222" s="19" t="s">
         <v>33</v>
@@ -10192,7 +10189,7 @@
         <v>438</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D223" s="19" t="s">
         <v>33</v>
@@ -10218,7 +10215,7 @@
         <v>444</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D224" s="19" t="s">
         <v>33</v>
@@ -10244,7 +10241,7 @@
         <v>450</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D225" s="19" t="s">
         <v>33</v>
@@ -10270,7 +10267,7 @@
         <v>518</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D226" s="19" t="s">
         <v>33</v>
@@ -10296,7 +10293,7 @@
         <v>520</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D227" s="19" t="s">
         <v>33</v>
@@ -10322,7 +10319,7 @@
         <v>522</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D228" s="19" t="s">
         <v>33</v>
@@ -10348,7 +10345,7 @@
         <v>470</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D229" s="19" t="s">
         <v>33</v>
@@ -10374,7 +10371,7 @@
         <v>476</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D230" s="19" t="s">
         <v>33</v>
@@ -10400,7 +10397,7 @@
         <v>482</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D231" s="19" t="s">
         <v>33</v>
@@ -10426,7 +10423,7 @@
         <v>488</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D232" s="19" t="s">
         <v>33</v>
@@ -10452,7 +10449,7 @@
         <v>494</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D233" s="19" t="s">
         <v>33</v>
@@ -10478,7 +10475,7 @@
         <v>500</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D234" s="19" t="s">
         <v>33</v>
@@ -10504,7 +10501,7 @@
         <v>506</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D235" s="19" t="s">
         <v>33</v>
@@ -10530,7 +10527,7 @@
         <v>512</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D236" s="19" t="s">
         <v>33</v>
@@ -10556,7 +10553,7 @@
         <v>524</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D237" s="19" t="s">
         <v>33</v>
@@ -10582,7 +10579,7 @@
         <v>526</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D238" s="19" t="s">
         <v>33</v>
@@ -10608,7 +10605,7 @@
         <v>528</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D239" s="19" t="s">
         <v>33</v>
@@ -10634,7 +10631,7 @@
         <v>472</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D240" s="19" t="s">
         <v>33</v>
@@ -10660,7 +10657,7 @@
         <v>478</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D241" s="19" t="s">
         <v>33</v>
@@ -10686,7 +10683,7 @@
         <v>484</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D242" s="19" t="s">
         <v>33</v>
@@ -10712,7 +10709,7 @@
         <v>490</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D243" s="19" t="s">
         <v>33</v>
@@ -10738,7 +10735,7 @@
         <v>496</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D244" s="19" t="s">
         <v>33</v>
@@ -10764,7 +10761,7 @@
         <v>502</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D245" s="19" t="s">
         <v>33</v>
@@ -10790,7 +10787,7 @@
         <v>508</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D246" s="19" t="s">
         <v>33</v>
@@ -10816,7 +10813,7 @@
         <v>514</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D247" s="19" t="s">
         <v>33</v>
@@ -10842,7 +10839,7 @@
         <v>530</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D248" s="19" t="s">
         <v>33</v>
@@ -10868,7 +10865,7 @@
         <v>532</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D249" s="19" t="s">
         <v>33</v>
@@ -10894,7 +10891,7 @@
         <v>534</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D250" s="19" t="s">
         <v>33</v>
@@ -10920,7 +10917,7 @@
         <v>474</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D251" s="19" t="s">
         <v>33</v>
@@ -10946,7 +10943,7 @@
         <v>480</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D252" s="19" t="s">
         <v>33</v>
@@ -10972,7 +10969,7 @@
         <v>486</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D253" s="19" t="s">
         <v>33</v>
@@ -10998,7 +10995,7 @@
         <v>492</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D254" s="19" t="s">
         <v>33</v>
@@ -11024,7 +11021,7 @@
         <v>498</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D255" s="19" t="s">
         <v>33</v>
@@ -11050,7 +11047,7 @@
         <v>504</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D256" s="19" t="s">
         <v>33</v>
@@ -11076,7 +11073,7 @@
         <v>510</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D257" s="19" t="s">
         <v>33</v>
@@ -11102,7 +11099,7 @@
         <v>516</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D258" s="19" t="s">
         <v>33</v>
@@ -11128,7 +11125,7 @@
         <v>584</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D259" s="19" t="s">
         <v>33</v>
@@ -11143,7 +11140,7 @@
         <v>15</v>
       </c>
       <c r="K259" s="24" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11154,7 +11151,7 @@
         <v>592</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D260" s="19" t="s">
         <v>33</v>
@@ -11169,7 +11166,7 @@
         <v>15</v>
       </c>
       <c r="K260" s="24" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11180,7 +11177,7 @@
         <v>590</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D261" s="19" t="s">
         <v>33</v>
@@ -11195,7 +11192,7 @@
         <v>15</v>
       </c>
       <c r="K261" s="24" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11206,7 +11203,7 @@
         <v>536</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D262" s="19" t="s">
         <v>33</v>
@@ -11221,7 +11218,7 @@
         <v>15</v>
       </c>
       <c r="K262" s="26" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11232,7 +11229,7 @@
         <v>542</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D263" s="19" t="s">
         <v>33</v>
@@ -11247,7 +11244,7 @@
         <v>15</v>
       </c>
       <c r="K263" s="24" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11258,7 +11255,7 @@
         <v>548</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D264" s="19" t="s">
         <v>33</v>
@@ -11273,7 +11270,7 @@
         <v>15</v>
       </c>
       <c r="K264" s="24" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11284,7 +11281,7 @@
         <v>554</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D265" s="19" t="s">
         <v>33</v>
@@ -11299,7 +11296,7 @@
         <v>15</v>
       </c>
       <c r="K265" s="24" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11310,7 +11307,7 @@
         <v>560</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D266" s="19" t="s">
         <v>33</v>
@@ -11325,7 +11322,7 @@
         <v>15</v>
       </c>
       <c r="K266" s="24" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11336,7 +11333,7 @@
         <v>566</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D267" s="19" t="s">
         <v>33</v>
@@ -11351,7 +11348,7 @@
         <v>15</v>
       </c>
       <c r="K267" s="24" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11362,7 +11359,7 @@
         <v>572</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D268" s="19" t="s">
         <v>33</v>
@@ -11377,7 +11374,7 @@
         <v>15</v>
       </c>
       <c r="K268" s="24" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11388,7 +11385,7 @@
         <v>578</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D269" s="19" t="s">
         <v>33</v>
@@ -11403,7 +11400,7 @@
         <v>15</v>
       </c>
       <c r="K269" s="24" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11414,7 +11411,7 @@
         <v>586</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D270" s="19" t="s">
         <v>33</v>
@@ -11429,7 +11426,7 @@
         <v>15</v>
       </c>
       <c r="K270" s="24" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11440,7 +11437,7 @@
         <v>598</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D271" s="19" t="s">
         <v>33</v>
@@ -11455,7 +11452,7 @@
         <v>15</v>
       </c>
       <c r="K271" s="24" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11466,7 +11463,7 @@
         <v>594</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D272" s="19" t="s">
         <v>33</v>
@@ -11481,7 +11478,7 @@
         <v>15</v>
       </c>
       <c r="K272" s="24" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11492,7 +11489,7 @@
         <v>538</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D273" s="19" t="s">
         <v>33</v>
@@ -11507,7 +11504,7 @@
         <v>15</v>
       </c>
       <c r="K273" s="24" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11518,7 +11515,7 @@
         <v>544</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D274" s="19" t="s">
         <v>33</v>
@@ -11533,7 +11530,7 @@
         <v>15</v>
       </c>
       <c r="K274" s="24" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11544,7 +11541,7 @@
         <v>550</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D275" s="19" t="s">
         <v>33</v>
@@ -11559,7 +11556,7 @@
         <v>15</v>
       </c>
       <c r="K275" s="24" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11570,7 +11567,7 @@
         <v>556</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D276" s="19" t="s">
         <v>33</v>
@@ -11585,7 +11582,7 @@
         <v>15</v>
       </c>
       <c r="K276" s="24" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11596,7 +11593,7 @@
         <v>562</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D277" s="19" t="s">
         <v>33</v>
@@ -11611,7 +11608,7 @@
         <v>15</v>
       </c>
       <c r="K277" s="24" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11622,7 +11619,7 @@
         <v>568</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D278" s="19" t="s">
         <v>33</v>
@@ -11637,7 +11634,7 @@
         <v>15</v>
       </c>
       <c r="K278" s="24" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11648,7 +11645,7 @@
         <v>574</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D279" s="19" t="s">
         <v>33</v>
@@ -11663,7 +11660,7 @@
         <v>15</v>
       </c>
       <c r="K279" s="24" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11674,7 +11671,7 @@
         <v>580</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D280" s="19" t="s">
         <v>33</v>
@@ -11689,7 +11686,7 @@
         <v>15</v>
       </c>
       <c r="K280" s="24" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="281" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11700,7 +11697,7 @@
         <v>588</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D281" s="19" t="s">
         <v>33</v>
@@ -11715,7 +11712,7 @@
         <v>15</v>
       </c>
       <c r="K281" s="24" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="282" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11726,7 +11723,7 @@
         <v>600</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D282" s="19" t="s">
         <v>33</v>
@@ -11741,7 +11738,7 @@
         <v>15</v>
       </c>
       <c r="K282" s="24" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="283" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11752,7 +11749,7 @@
         <v>596</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D283" s="19" t="s">
         <v>33</v>
@@ -11767,7 +11764,7 @@
         <v>15</v>
       </c>
       <c r="K283" s="24" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="284" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11778,7 +11775,7 @@
         <v>540</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D284" s="19" t="s">
         <v>33</v>
@@ -11793,7 +11790,7 @@
         <v>15</v>
       </c>
       <c r="K284" s="24" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="285" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11804,7 +11801,7 @@
         <v>546</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D285" s="19" t="s">
         <v>33</v>
@@ -11819,7 +11816,7 @@
         <v>15</v>
       </c>
       <c r="K285" s="24" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="286" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11830,7 +11827,7 @@
         <v>552</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D286" s="19" t="s">
         <v>33</v>
@@ -11845,7 +11842,7 @@
         <v>15</v>
       </c>
       <c r="K286" s="24" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="287" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11856,7 +11853,7 @@
         <v>558</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D287" s="19" t="s">
         <v>33</v>
@@ -11871,7 +11868,7 @@
         <v>15</v>
       </c>
       <c r="K287" s="24" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="288" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11882,7 +11879,7 @@
         <v>564</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D288" s="19" t="s">
         <v>33</v>
@@ -11897,7 +11894,7 @@
         <v>15</v>
       </c>
       <c r="K288" s="24" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="289" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11908,7 +11905,7 @@
         <v>570</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D289" s="19" t="s">
         <v>33</v>
@@ -11923,7 +11920,7 @@
         <v>15</v>
       </c>
       <c r="K289" s="24" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="290" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11934,7 +11931,7 @@
         <v>576</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D290" s="19" t="s">
         <v>33</v>
@@ -11949,7 +11946,7 @@
         <v>15</v>
       </c>
       <c r="K290" s="24" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="291" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
@@ -11960,7 +11957,7 @@
         <v>582</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D291" s="19" t="s">
         <v>33</v>
@@ -11975,7 +11972,7 @@
         <v>15</v>
       </c>
       <c r="K291" s="24" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="292" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -11986,7 +11983,7 @@
         <v>608</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D292" s="19" t="s">
         <v>33</v>
@@ -12001,7 +11998,7 @@
         <v>15</v>
       </c>
       <c r="K292" s="19" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="293" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -12012,7 +12009,7 @@
         <v>606</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D293" s="19" t="s">
         <v>33</v>
@@ -12027,7 +12024,7 @@
         <v>15</v>
       </c>
       <c r="K293" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="294" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -12038,7 +12035,7 @@
         <v>602</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D294" s="19" t="s">
         <v>33</v>
@@ -12053,7 +12050,7 @@
         <v>15</v>
       </c>
       <c r="K294" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="295" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -12064,7 +12061,7 @@
         <v>604</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D295" s="19" t="s">
         <v>33</v>
@@ -12079,7 +12076,7 @@
         <v>15</v>
       </c>
       <c r="K295" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="296" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
@@ -12090,7 +12087,7 @@
         <v>616</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D296" s="19" t="s">
         <v>33</v>
@@ -12116,7 +12113,7 @@
         <v>614</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D297" s="19" t="s">
         <v>33</v>
@@ -12142,7 +12139,7 @@
         <v>610</v>
       </c>
       <c r="C298" s="19" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D298" s="19" t="s">
         <v>33</v>
@@ -12168,7 +12165,7 @@
         <v>612</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D299" s="19" t="s">
         <v>33</v>
@@ -12194,7 +12191,7 @@
         <v>632</v>
       </c>
       <c r="C300" s="19" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D300" s="19" t="s">
         <v>33</v>
@@ -12220,7 +12217,7 @@
         <v>628</v>
       </c>
       <c r="C301" s="19" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D301" s="19" t="s">
         <v>33</v>
@@ -12246,7 +12243,7 @@
         <v>624</v>
       </c>
       <c r="C302" s="19" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D302" s="19" t="s">
         <v>33</v>
@@ -12272,7 +12269,7 @@
         <v>626</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D303" s="19" t="s">
         <v>33</v>
@@ -12298,7 +12295,7 @@
         <v>630</v>
       </c>
       <c r="C304" s="19" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D304" s="19" t="s">
         <v>33</v>
@@ -12324,7 +12321,7 @@
         <v>622</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D305" s="19" t="s">
         <v>33</v>
@@ -12350,7 +12347,7 @@
         <v>618</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D306" s="19" t="s">
         <v>33</v>
@@ -12373,7 +12370,7 @@
         <v>620</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D307" s="19" t="s">
         <v>33</v>
@@ -12399,7 +12396,7 @@
         <v>634</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D308" s="19" t="s">
         <v>33</v>
@@ -12414,7 +12411,7 @@
         <v>15</v>
       </c>
       <c r="K308" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="309" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -12425,7 +12422,7 @@
         <v>648</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D309" s="19" t="s">
         <v>33</v>
@@ -12440,7 +12437,7 @@
         <v>15</v>
       </c>
       <c r="K309" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="310" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
@@ -12451,7 +12448,7 @@
         <v>646</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D310" s="19" t="s">
         <v>33</v>
@@ -12466,7 +12463,7 @@
         <v>15</v>
       </c>
       <c r="K310" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="311" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -12477,7 +12474,7 @@
         <v>642</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D311" s="19" t="s">
         <v>33</v>
@@ -12492,7 +12489,7 @@
         <v>15</v>
       </c>
       <c r="K311" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -12503,7 +12500,7 @@
         <v>644</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D312" s="19" t="s">
         <v>33</v>
@@ -12518,7 +12515,7 @@
         <v>15</v>
       </c>
       <c r="K312" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="313" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -12529,7 +12526,7 @@
         <v>640</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D313" s="19" t="s">
         <v>33</v>
@@ -12544,7 +12541,7 @@
         <v>15</v>
       </c>
       <c r="K313" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="314" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -12555,7 +12552,7 @@
         <v>638</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D314" s="19" t="s">
         <v>33</v>
@@ -12570,7 +12567,7 @@
         <v>15</v>
       </c>
       <c r="K314" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="315" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -12581,7 +12578,7 @@
         <v>636</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D315" s="19" t="s">
         <v>33</v>
@@ -12596,7 +12593,7 @@
         <v>15</v>
       </c>
       <c r="K315" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="316" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -12604,10 +12601,10 @@
         <v>649</v>
       </c>
       <c r="B316" s="45" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C316" s="19" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D316" s="19" t="s">
         <v>27</v>
@@ -12623,20 +12620,20 @@
         <v>15</v>
       </c>
       <c r="K316" s="44" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="L316" s="21"/>
       <c r="M316" s="30"/>
     </row>
     <row r="317" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="19" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B317" s="19" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C317" s="19" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D317" s="45"/>
       <c r="E317" s="24" t="b">
@@ -12648,7 +12645,7 @@
       <c r="I317" s="19"/>
       <c r="J317" s="19"/>
       <c r="K317" s="44" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="L317" s="39"/>
       <c r="M317" s="30"/>
@@ -12661,7 +12658,7 @@
         <v>651</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D318" s="19" t="s">
         <v>33</v>
@@ -12676,7 +12673,7 @@
         <v>15</v>
       </c>
       <c r="K318" s="14" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="L318" s="10"/>
     </row>
@@ -12688,7 +12685,7 @@
         <v>657</v>
       </c>
       <c r="C319" s="20" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D319" s="19" t="s">
         <v>33</v>
@@ -12703,7 +12700,7 @@
         <v>15</v>
       </c>
       <c r="K319" s="14" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="L319" s="11"/>
     </row>
@@ -12715,7 +12712,7 @@
         <v>653</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D320" s="19" t="s">
         <v>33</v>
@@ -12730,7 +12727,7 @@
         <v>15</v>
       </c>
       <c r="K320" s="14" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="L320" s="11"/>
     </row>
@@ -12742,7 +12739,7 @@
         <v>659</v>
       </c>
       <c r="C321" s="20" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D321" s="19" t="s">
         <v>33</v>
@@ -12757,7 +12754,7 @@
         <v>15</v>
       </c>
       <c r="K321" s="14" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="L321" s="11"/>
     </row>
@@ -12769,7 +12766,7 @@
         <v>655</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D322" s="19" t="s">
         <v>33</v>
@@ -12784,7 +12781,7 @@
         <v>15</v>
       </c>
       <c r="K322" s="14" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="L322" s="11"/>
     </row>
@@ -12796,7 +12793,7 @@
         <v>661</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D323" s="19" t="s">
         <v>33</v>
@@ -12811,7 +12808,7 @@
         <v>15</v>
       </c>
       <c r="K323" s="14" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="L323" s="11"/>
     </row>
@@ -12961,7 +12958,7 @@
         <v>665</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>33</v>
@@ -12987,7 +12984,7 @@
         <v>666</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>33</v>
@@ -13013,7 +13010,7 @@
         <v>667</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>33</v>
@@ -13039,7 +13036,7 @@
         <v>668</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>33</v>
@@ -13065,7 +13062,7 @@
         <v>669</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>33</v>
@@ -13091,7 +13088,7 @@
         <v>670</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>33</v>
@@ -13118,7 +13115,7 @@
         <v>671</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>672</v>
@@ -13146,7 +13143,7 @@
         <v>673</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>172</v>
@@ -13173,7 +13170,7 @@
         <v>674</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>33</v>
@@ -13189,7 +13186,7 @@
         <v>15</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="L12" s="9"/>
     </row>
@@ -13217,7 +13214,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -13228,7 +13225,7 @@
         <v>676</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>33</v>
@@ -13255,7 +13252,7 @@
         <v>677</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>33</v>
@@ -13282,7 +13279,7 @@
         <v>678</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>33</v>
@@ -13309,7 +13306,7 @@
         <v>679</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>33</v>
@@ -13335,7 +13332,7 @@
         <v>680</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>33</v>
@@ -13363,7 +13360,7 @@
         <v>610</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>33</v>
@@ -13378,7 +13375,7 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -13389,7 +13386,7 @@
         <v>612</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>33</v>
@@ -13404,7 +13401,7 @@
         <v>15</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -13415,22 +13412,22 @@
         <v>614</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>796</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -13441,7 +13438,7 @@
         <v>681</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>33</v>
@@ -13456,7 +13453,7 @@
         <v>15</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="37" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -13467,25 +13464,25 @@
         <v>682</v>
       </c>
       <c r="C23" s="36" t="s">
+        <v>797</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L23" s="38" t="s">
         <v>799</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>1186</v>
-      </c>
-      <c r="L23" s="38" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="37" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
@@ -13496,7 +13493,7 @@
         <v>683</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>33</v>
@@ -13511,10 +13508,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -13525,7 +13522,7 @@
         <v>684</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>33</v>
@@ -13565,7 +13562,7 @@
       </c>
       <c r="H26" s="5"/>
       <c r="K26" s="9" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
@@ -13589,7 +13586,7 @@
       </c>
       <c r="H27" s="5"/>
       <c r="K27" s="9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -13721,7 +13718,7 @@
         <v>602</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>33</v>
@@ -13736,7 +13733,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="M4" s="11"/>
     </row>
@@ -13748,7 +13745,7 @@
         <v>604</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>33</v>
@@ -13763,7 +13760,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13774,7 +13771,7 @@
         <v>606</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>33</v>
@@ -13789,7 +13786,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="46" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
@@ -13800,7 +13797,7 @@
         <v>691</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>33</v>
@@ -13854,7 +13851,7 @@
         <v>694</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>33</v>
@@ -13884,7 +13881,7 @@
         <v>695</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>33</v>
@@ -13914,7 +13911,7 @@
         <v>696</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>33</v>
@@ -13934,7 +13931,7 @@
       </c>
       <c r="K11" s="49"/>
       <c r="L11" s="27" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
@@ -13942,10 +13939,10 @@
         <v>41</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>33</v>
@@ -13964,10 +13961,10 @@
         <v>15</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13978,7 +13975,7 @@
         <v>697</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>33</v>
@@ -14002,22 +13999,22 @@
         <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="H14" s="5"/>
       <c r="I14" s="47" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -14028,7 +14025,7 @@
         <v>698</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>33</v>
@@ -14044,7 +14041,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="L15" s="20"/>
     </row>
@@ -14056,7 +14053,7 @@
         <v>710</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>711</v>
@@ -14072,7 +14069,7 @@
         <v>15</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14083,7 +14080,7 @@
         <v>699</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>33</v>
@@ -14109,7 +14106,7 @@
         <v>700</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>14</v>
@@ -14125,7 +14122,7 @@
         <v>15</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14136,7 +14133,7 @@
         <v>702</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>27</v>
@@ -14163,7 +14160,7 @@
         <v>703</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>27</v>
@@ -14190,7 +14187,7 @@
         <v>704</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>27</v>
@@ -14217,7 +14214,7 @@
         <v>705</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>27</v>
@@ -14243,7 +14240,7 @@
         <v>706</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>707</v>
@@ -14284,7 +14281,7 @@
         <v>15</v>
       </c>
       <c r="K24" s="46" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14295,7 +14292,7 @@
         <v>712</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>27</v>
@@ -14321,7 +14318,7 @@
         <v>713</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>714</v>
@@ -14337,7 +14334,7 @@
         <v>15</v>
       </c>
       <c r="K26" s="46" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14348,7 +14345,7 @@
         <v>715</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>27</v>
@@ -14373,7 +14370,7 @@
         <v>716</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>33</v>
@@ -14398,7 +14395,7 @@
         <v>717</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>33</v>
@@ -14425,7 +14422,7 @@
         <v>718</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>33</v>
@@ -14451,7 +14448,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>23</v>
@@ -14480,7 +14477,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>30</v>
@@ -14533,7 +14530,7 @@
         <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14541,7 +14538,7 @@
         <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14549,7 +14546,7 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14557,10 +14554,10 @@
         <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14568,7 +14565,7 @@
         <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14576,7 +14573,7 @@
         <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14584,7 +14581,7 @@
         <v>233</v>
       </c>
       <c r="B8" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14592,7 +14589,7 @@
         <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14600,7 +14597,7 @@
         <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14608,7 +14605,7 @@
         <v>452</v>
       </c>
       <c r="B11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14616,7 +14613,7 @@
         <v>454</v>
       </c>
       <c r="B12" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14624,7 +14621,7 @@
         <v>456</v>
       </c>
       <c r="B13" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14632,7 +14629,7 @@
         <v>458</v>
       </c>
       <c r="B14" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14640,7 +14637,7 @@
         <v>464</v>
       </c>
       <c r="B15" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14648,7 +14645,7 @@
         <v>518</v>
       </c>
       <c r="B16" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14656,7 +14653,7 @@
         <v>520</v>
       </c>
       <c r="B17" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14664,7 +14661,7 @@
         <v>522</v>
       </c>
       <c r="B18" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14672,7 +14669,7 @@
         <v>524</v>
       </c>
       <c r="B19" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14680,7 +14677,7 @@
         <v>530</v>
       </c>
       <c r="B20" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14688,7 +14685,7 @@
         <v>584</v>
       </c>
       <c r="B21" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14696,7 +14693,7 @@
         <v>592</v>
       </c>
       <c r="B22" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14704,7 +14701,7 @@
         <v>590</v>
       </c>
       <c r="B23" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14712,7 +14709,7 @@
         <v>586</v>
       </c>
       <c r="B24" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14720,7 +14717,7 @@
         <v>588</v>
       </c>
       <c r="B25" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14728,7 +14725,7 @@
         <v>616</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14736,7 +14733,7 @@
         <v>614</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14744,7 +14741,7 @@
         <v>610</v>
       </c>
       <c r="B28" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14752,7 +14749,7 @@
         <v>612</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -14760,7 +14757,7 @@
         <v>632</v>
       </c>
       <c r="B30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -14768,7 +14765,7 @@
         <v>630</v>
       </c>
       <c r="B31" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -14776,7 +14773,7 @@
         <v>628</v>
       </c>
       <c r="B32" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14784,7 +14781,7 @@
         <v>624</v>
       </c>
       <c r="B33" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14792,7 +14789,7 @@
         <v>626</v>
       </c>
       <c r="B34" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14800,7 +14797,7 @@
         <v>622</v>
       </c>
       <c r="B35" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14808,7 +14805,7 @@
         <v>618</v>
       </c>
       <c r="B36" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14816,7 +14813,7 @@
         <v>620</v>
       </c>
       <c r="B37" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
